--- a/Result/1_1.xlsx
+++ b/Result/1_1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c49e4f0b6c3fc49/WorkSpace/SAT_learn/Result/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_875E3DD797D9AECF8A160B2FDBE0BDD56D7A1326" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C49A6D97-DC99-449E-AE17-E2E208D1EFE3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -154,12 +160,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -167,8 +173,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,15 +227,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -264,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,9 +317,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +369,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,14 +562,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:L29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="3" max="3" width="44.25" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -555,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -563,7 +634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -571,7 +642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -579,7 +650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -617,7 +688,7 @@
         <v>7214</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -655,7 +726,7 @@
         <v>690239878</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -693,7 +764,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -731,7 +802,7 @@
         <v>103199</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -739,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -747,7 +818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -755,7 +826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -763,7 +834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -771,7 +842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -779,7 +850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -787,7 +858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -795,7 +866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -803,7 +874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -811,7 +882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -819,7 +890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -827,7 +898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -835,7 +906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -843,7 +914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -851,7 +922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -859,7 +930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -867,7 +938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -875,7 +946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -913,7 +984,7 @@
         <v>7214</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -951,7 +1022,7 @@
         <v>690239878</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -989,7 +1060,7 @@
         <v>7606</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1027,7 +1098,7 @@
         <v>725179221</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1035,7 +1106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1043,7 +1114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1051,7 +1122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1060,6 +1131,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Result/1_1.xlsx
+++ b/Result/1_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,36 +579,16 @@
           <t>Z3(b)_solved</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1524</v>
-      </c>
-      <c r="D6" t="n">
-        <v>57</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="n">
-        <v>162</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>677</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4573</v>
-      </c>
-      <c r="K6" t="n">
-        <v>211</v>
-      </c>
-      <c r="L6" t="n">
-        <v>7214</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -619,36 +599,16 @@
           <t>Z3(b)_time</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>5730648</v>
-      </c>
-      <c r="D7" t="n">
-        <v>33904</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10085</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2055554</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>62123241</v>
-      </c>
-      <c r="J7" t="n">
-        <v>549206694</v>
-      </c>
-      <c r="K7" t="n">
-        <v>71079752</v>
-      </c>
-      <c r="L7" t="n">
-        <v>690239878</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -659,36 +619,16 @@
           <t>Z3(n)_solved</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>239</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>84</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>327</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,36 +639,16 @@
           <t>Z3(n)_time</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>71969</v>
-      </c>
-      <c r="D9" t="n">
-        <v>349</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1057</v>
-      </c>
-      <c r="G9" t="n">
-        <v>29824</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>103199</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1100,34 +1020,34 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1524</v>
+        <v>239</v>
       </c>
       <c r="D28" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>677</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4573</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>7214</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29">
@@ -1140,34 +1060,34 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5730648</v>
+        <v>56358</v>
       </c>
       <c r="D29" t="n">
-        <v>33904</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>10085</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2055554</v>
+        <v>24558</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>62123241</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>549206694</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>71079752</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>690239878</v>
+        <v>80916</v>
       </c>
     </row>
     <row r="30">
@@ -1179,36 +1099,16 @@
           <t>Z3(pb)_solved</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>1596</v>
-      </c>
-      <c r="D30" t="n">
-        <v>41</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
-      </c>
-      <c r="G30" t="n">
-        <v>162</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>688</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4874</v>
-      </c>
-      <c r="K30" t="n">
-        <v>235</v>
-      </c>
-      <c r="L30" t="n">
-        <v>7606</v>
-      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1219,36 +1119,16 @@
           <t>Z3(pb)_time</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>6579055</v>
-      </c>
-      <c r="D31" t="n">
-        <v>43180</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>31440</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3978683</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>70121627</v>
-      </c>
-      <c r="J31" t="n">
-        <v>566280648</v>
-      </c>
-      <c r="K31" t="n">
-        <v>78144588</v>
-      </c>
-      <c r="L31" t="n">
-        <v>725179221</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1330,6 +1210,86 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ismt(c+p+e)_solved</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1663</v>
+      </c>
+      <c r="D36" t="n">
+        <v>80</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" t="n">
+        <v>162</v>
+      </c>
+      <c r="H36" t="n">
+        <v>27</v>
+      </c>
+      <c r="I36" t="n">
+        <v>827</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9302</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1819</v>
+      </c>
+      <c r="L36" t="n">
+        <v>13897</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ismt(c+p+e)_time</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2736693</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14099</v>
+      </c>
+      <c r="E37" t="n">
+        <v>122221</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5883</v>
+      </c>
+      <c r="G37" t="n">
+        <v>265515</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4937464</v>
+      </c>
+      <c r="I37" t="n">
+        <v>43391224</v>
+      </c>
+      <c r="J37" t="n">
+        <v>580261243</v>
+      </c>
+      <c r="K37" t="n">
+        <v>524254695</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1155989037</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Result/1_1.xlsx
+++ b/Result/1_1.xlsx
@@ -539,16 +539,36 @@
           <t>ours(c+p+d+e)_solved</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>1663</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>162</v>
+      </c>
+      <c r="H4" t="n">
+        <v>27</v>
+      </c>
+      <c r="I4" t="n">
+        <v>828</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9306</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1823</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13906</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,16 +579,36 @@
           <t>ours(c+p+d+e)_time</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1257671</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7767</v>
+      </c>
+      <c r="E5" t="n">
+        <v>71918</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2187</v>
+      </c>
+      <c r="G5" t="n">
+        <v>143885</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4578729</v>
+      </c>
+      <c r="I5" t="n">
+        <v>42548025</v>
+      </c>
+      <c r="J5" t="n">
+        <v>550325702</v>
+      </c>
+      <c r="K5" t="n">
+        <v>506115374</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1105051258</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1019,36 +1059,16 @@
           <t>Z3(pn)_solved</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>239</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>85</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>324</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1059,36 +1079,16 @@
           <t>Z3(pn)_time</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>56358</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>24558</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>80916</v>
-      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1219,36 +1219,16 @@
           <t>ismt(c+p+e)_solved</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>1663</v>
-      </c>
-      <c r="D36" t="n">
-        <v>80</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7</v>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
-      </c>
-      <c r="G36" t="n">
-        <v>162</v>
-      </c>
-      <c r="H36" t="n">
-        <v>27</v>
-      </c>
-      <c r="I36" t="n">
-        <v>827</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9302</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1819</v>
-      </c>
-      <c r="L36" t="n">
-        <v>13897</v>
-      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1259,36 +1239,16 @@
           <t>ismt(c+p+e)_time</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>2736693</v>
-      </c>
-      <c r="D37" t="n">
-        <v>14099</v>
-      </c>
-      <c r="E37" t="n">
-        <v>122221</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5883</v>
-      </c>
-      <c r="G37" t="n">
-        <v>265515</v>
-      </c>
-      <c r="H37" t="n">
-        <v>4937464</v>
-      </c>
-      <c r="I37" t="n">
-        <v>43391224</v>
-      </c>
-      <c r="J37" t="n">
-        <v>580261243</v>
-      </c>
-      <c r="K37" t="n">
-        <v>524254695</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1155989037</v>
-      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Result/1_1.xlsx
+++ b/Result/1_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,55 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>AProVE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>calypto</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dartagnan</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>LassoRanker</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>leipzig</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>mcm</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CInteger</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ITS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>SAT14</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
@@ -494,293 +504,569 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ours(c+p+f+s)_solved</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ismt_c_p_solved</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1663</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>162</v>
+      </c>
+      <c r="J2" t="n">
+        <v>28</v>
+      </c>
+      <c r="K2" t="n">
+        <v>825</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8993</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1772</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13540</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ours(c+p+f+s)_time</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ismt_c_p_time</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4384908</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26703</v>
+      </c>
+      <c r="G3" t="n">
+        <v>139701</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3633</v>
+      </c>
+      <c r="I3" t="n">
+        <v>367284</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9860905</v>
+      </c>
+      <c r="K3" t="n">
+        <v>45685519</v>
+      </c>
+      <c r="L3" t="n">
+        <v>821426550</v>
+      </c>
+      <c r="M3" t="n">
+        <v>608270505</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1490165708</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ours(c+p+d+e)_solved</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1663</v>
-      </c>
-      <c r="D4" t="n">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cvc5_solved</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>362</v>
       </c>
       <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
-      <c r="G4" t="n">
-        <v>162</v>
-      </c>
-      <c r="H4" t="n">
-        <v>27</v>
-      </c>
       <c r="I4" t="n">
-        <v>828</v>
+        <v>82</v>
       </c>
       <c r="J4" t="n">
-        <v>9306</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>1823</v>
+        <v>902</v>
       </c>
       <c r="L4" t="n">
-        <v>13906</v>
+        <v>7359</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1075</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9821</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ours(c+p+d+e)_time</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>1257671</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7767</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>cvc5_time</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>71918</v>
+        <v>4861784</v>
       </c>
       <c r="F5" t="n">
-        <v>2187</v>
+        <v>91417</v>
       </c>
       <c r="G5" t="n">
-        <v>143885</v>
+        <v>50842</v>
       </c>
       <c r="H5" t="n">
-        <v>4578729</v>
+        <v>2555</v>
       </c>
       <c r="I5" t="n">
-        <v>42548025</v>
+        <v>412814</v>
       </c>
       <c r="J5" t="n">
-        <v>550325702</v>
+        <v>1147678</v>
       </c>
       <c r="K5" t="n">
-        <v>506115374</v>
+        <v>59318685</v>
       </c>
       <c r="L5" t="n">
-        <v>1105051258</v>
+        <v>1481623423</v>
+      </c>
+      <c r="M5" t="n">
+        <v>879505192</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2427014390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Z3(b)_solved</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ismt_c_p_e_solved</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1663</v>
+      </c>
+      <c r="F6" t="n">
+        <v>80</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>162</v>
+      </c>
+      <c r="J6" t="n">
+        <v>26</v>
+      </c>
+      <c r="K6" t="n">
+        <v>821</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9240</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1779</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13788</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Z3(b)_time</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ismt_c_p_e_time</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5331219</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7968</v>
+      </c>
+      <c r="G7" t="n">
+        <v>217862</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2316</v>
+      </c>
+      <c r="I7" t="n">
+        <v>445294</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9588957</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47272618</v>
+      </c>
+      <c r="L7" t="n">
+        <v>806000184</v>
+      </c>
+      <c r="M7" t="n">
+        <v>623712634</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1492579052</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Z3(n)_solved</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>mathsat_solved</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1642</v>
+      </c>
+      <c r="F8" t="n">
+        <v>79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>128</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" t="n">
+        <v>711</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7672</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1781</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12061</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Z3(n)_time</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>mathsat_time</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>58015624</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6031</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1932698</v>
+      </c>
+      <c r="H9" t="n">
+        <v>664</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3221496</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6562517</v>
+      </c>
+      <c r="K9" t="n">
+        <v>63349411</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1128448723</v>
+      </c>
+      <c r="M9" t="n">
+        <v>92202799</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1353740547</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Z3_solved</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ismt_m_p_d_e_solved</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1663</v>
+      </c>
+      <c r="F10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" t="n">
+        <v>162</v>
+      </c>
+      <c r="J10" t="n">
+        <v>24</v>
+      </c>
+      <c r="K10" t="n">
+        <v>802</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8894</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1141</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12783</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Z3_time</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ismt_m_p_d_e_time</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1051623</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9219</v>
+      </c>
+      <c r="G11" t="n">
+        <v>156537</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1680</v>
+      </c>
+      <c r="I11" t="n">
+        <v>441000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6834413</v>
+      </c>
+      <c r="K11" t="n">
+        <v>53207306</v>
+      </c>
+      <c r="L11" t="n">
+        <v>588080276</v>
+      </c>
+      <c r="M11" t="n">
+        <v>361633557</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1011415611</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>APROVE_solved</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>z3_pn_solved</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>239</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>85</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>324</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>APROVE_time</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>z3_pn_time</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>56358</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24558</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>80916</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CVC5_b_solved</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ismt_hr_solved</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -789,18 +1075,24 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CVC5_b_time</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ismt_hr_time</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -809,338 +1101,760 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CVC5_solved</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>z3_b_solved</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1524</v>
+      </c>
+      <c r="F16" t="n">
+        <v>57</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" t="n">
+        <v>162</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>677</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4573</v>
+      </c>
+      <c r="M16" t="n">
+        <v>211</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7214</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CVC5_time</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>z3_b_time</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5730648</v>
+      </c>
+      <c r="F17" t="n">
+        <v>33904</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10085</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2055554</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>62123241</v>
+      </c>
+      <c r="L17" t="n">
+        <v>549206694</v>
+      </c>
+      <c r="M17" t="n">
+        <v>71079752</v>
+      </c>
+      <c r="N17" t="n">
+        <v>690239878</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>YICES2_solved</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>yices2_solved</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1593</v>
+      </c>
+      <c r="F18" t="n">
+        <v>79</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" t="n">
+        <v>101</v>
+      </c>
+      <c r="J18" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" t="n">
+        <v>516</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6820</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1835</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10970</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>YICES2_time</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>yices2_time</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5291332</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8183</v>
+      </c>
+      <c r="G19" t="n">
+        <v>650705</v>
+      </c>
+      <c r="H19" t="n">
+        <v>380</v>
+      </c>
+      <c r="I19" t="n">
+        <v>552099</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1965885</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16242809</v>
+      </c>
+      <c r="L19" t="n">
+        <v>328988955</v>
+      </c>
+      <c r="M19" t="n">
+        <v>44699418</v>
+      </c>
+      <c r="N19" t="n">
+        <v>398399766</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>SMT-RAT_solved</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>z3_4_8_13_solved</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>SMT-RAT_time</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>z3_4_8_13_time</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MATHSAT_solved</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ismt_c_p_e_359_solved</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1663</v>
+      </c>
+      <c r="F22" t="n">
+        <v>80</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" t="n">
+        <v>162</v>
+      </c>
+      <c r="J22" t="n">
+        <v>26</v>
+      </c>
+      <c r="K22" t="n">
+        <v>843</v>
+      </c>
+      <c r="L22" t="n">
+        <v>9248</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1726</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13765</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MATHSAT_time</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ismt_c_p_e_359_time</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4334329</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7268</v>
+      </c>
+      <c r="G23" t="n">
+        <v>360551</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5490</v>
+      </c>
+      <c r="I23" t="n">
+        <v>212951</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5224485</v>
+      </c>
+      <c r="K23" t="n">
+        <v>53371774</v>
+      </c>
+      <c r="L23" t="n">
+        <v>684099688</v>
+      </c>
+      <c r="M23" t="n">
+        <v>509616119</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1257232655</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ismt(c)_solved</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ismt_k_p_d_e_359_solved</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1663</v>
+      </c>
+      <c r="F24" t="n">
+        <v>80</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" t="n">
+        <v>162</v>
+      </c>
+      <c r="J24" t="n">
+        <v>27</v>
+      </c>
+      <c r="K24" t="n">
+        <v>842</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1766</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13776</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ismt(c)_time</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ismt_k_p_d_e_359_time</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3546697</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5257</v>
+      </c>
+      <c r="G25" t="n">
+        <v>53087</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2498</v>
+      </c>
+      <c r="I25" t="n">
+        <v>203122</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6005567</v>
+      </c>
+      <c r="K25" t="n">
+        <v>36621259</v>
+      </c>
+      <c r="L25" t="n">
+        <v>559264516</v>
+      </c>
+      <c r="M25" t="n">
+        <v>508796058</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1114498061</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ismt(m)_solved</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>z3_4_8_14_solved</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ismt(m)_time</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>z3_4_8_14_time</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Z3(pn)_solved</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>cvc5_a_solved</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>179</v>
+      </c>
+      <c r="F28" t="n">
+        <v>79</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>18</v>
+      </c>
+      <c r="K28" t="n">
+        <v>42</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1777</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4103</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Z3(pn)_time</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>cvc5_a_time</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>17250158</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8277</v>
+      </c>
+      <c r="G29" t="n">
+        <v>65230</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1108</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6619854</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8042206</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7277963</v>
+      </c>
+      <c r="L29" t="n">
+        <v>141197968</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3127895</v>
+      </c>
+      <c r="N29" t="n">
+        <v>183590659</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Z3(pb)_solved</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ismt_k_p_d_e_solved</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1663</v>
+      </c>
+      <c r="F30" t="n">
+        <v>80</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="n">
+        <v>162</v>
+      </c>
+      <c r="J30" t="n">
+        <v>27</v>
+      </c>
+      <c r="K30" t="n">
+        <v>826</v>
+      </c>
+      <c r="L30" t="n">
+        <v>9263</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1768</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13806</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Z3(pb)_time</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ismt_k_p_d_e_time</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1891688</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4189</v>
+      </c>
+      <c r="G31" t="n">
+        <v>64172</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1171</v>
+      </c>
+      <c r="I31" t="n">
+        <v>183489</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4569019</v>
+      </c>
+      <c r="K31" t="n">
+        <v>35245217</v>
+      </c>
+      <c r="L31" t="n">
+        <v>530956236</v>
+      </c>
+      <c r="M31" t="n">
+        <v>568323828</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1141239009</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ours(c+p+d)_solved</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>smtrat_solved</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1149,18 +1863,24 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ours(c+p+d)_time</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>smtrat_time</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1169,86 +1889,928 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ours(c+p)_solved</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>cvc5_r_solved</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F34" t="n">
+        <v>75</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>82</v>
+      </c>
+      <c r="J34" t="n">
+        <v>16</v>
+      </c>
+      <c r="K34" t="n">
+        <v>181</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3562</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1136</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6418</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ours(c+p)_time</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>cvc5_r_time</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>40569289</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4567</v>
+      </c>
+      <c r="G35" t="n">
+        <v>48177</v>
+      </c>
+      <c r="H35" t="n">
+        <v>784</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1799504</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7977881</v>
+      </c>
+      <c r="K35" t="n">
+        <v>11653526</v>
+      </c>
+      <c r="L35" t="n">
+        <v>246027900</v>
+      </c>
+      <c r="M35" t="n">
+        <v>7161015</v>
+      </c>
+      <c r="N35" t="n">
+        <v>315242643</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ismt(c+p+e)_solved</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>z3_pb_solved</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1596</v>
+      </c>
+      <c r="F36" t="n">
+        <v>41</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+      <c r="I36" t="n">
+        <v>162</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>688</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4874</v>
+      </c>
+      <c r="M36" t="n">
+        <v>235</v>
+      </c>
+      <c r="N36" t="n">
+        <v>7606</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ismt(c+p+e)_time</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>z3_pb_time</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6579055</v>
+      </c>
+      <c r="F37" t="n">
+        <v>43180</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>31440</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3978683</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>70121627</v>
+      </c>
+      <c r="L37" t="n">
+        <v>566280648</v>
+      </c>
+      <c r="M37" t="n">
+        <v>78144588</v>
+      </c>
+      <c r="N37" t="n">
+        <v>725179221</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>z3_solved</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1655</v>
+      </c>
+      <c r="F38" t="n">
+        <v>80</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+      <c r="I38" t="n">
+        <v>160</v>
+      </c>
+      <c r="J38" t="n">
+        <v>14</v>
+      </c>
+      <c r="K38" t="n">
+        <v>762</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8325</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1815</v>
+      </c>
+      <c r="N38" t="n">
+        <v>12828</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>z3_time</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>8474928</v>
+      </c>
+      <c r="F39" t="n">
+        <v>160346</v>
+      </c>
+      <c r="G39" t="n">
+        <v>53917</v>
+      </c>
+      <c r="H39" t="n">
+        <v>44544</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1776850</v>
+      </c>
+      <c r="J39" t="n">
+        <v>510479</v>
+      </c>
+      <c r="K39" t="n">
+        <v>88859271</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1149191537</v>
+      </c>
+      <c r="M39" t="n">
+        <v>66653591</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1315725463</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ismt_c_p_d_e_solved</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1663</v>
+      </c>
+      <c r="F40" t="n">
+        <v>80</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" t="n">
+        <v>162</v>
+      </c>
+      <c r="J40" t="n">
+        <v>27</v>
+      </c>
+      <c r="K40" t="n">
+        <v>826</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9276</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1795</v>
+      </c>
+      <c r="N40" t="n">
+        <v>13846</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ismt_c_p_d_e_time</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2275382</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12461</v>
+      </c>
+      <c r="G41" t="n">
+        <v>88901</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2969</v>
+      </c>
+      <c r="I41" t="n">
+        <v>185501</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6304837</v>
+      </c>
+      <c r="K41" t="n">
+        <v>44806429</v>
+      </c>
+      <c r="L41" t="n">
+        <v>660593826</v>
+      </c>
+      <c r="M41" t="n">
+        <v>563055339</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1277325645</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ismt_c_solved</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1663</v>
+      </c>
+      <c r="F42" t="n">
+        <v>80</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+      <c r="I42" t="n">
+        <v>162</v>
+      </c>
+      <c r="J42" t="n">
+        <v>25</v>
+      </c>
+      <c r="K42" t="n">
+        <v>817</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8885</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1690</v>
+      </c>
+      <c r="N42" t="n">
+        <v>13339</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ismt_c_time</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>5800196</v>
+      </c>
+      <c r="F43" t="n">
+        <v>45984</v>
+      </c>
+      <c r="G43" t="n">
+        <v>159784</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2164</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1167181</v>
+      </c>
+      <c r="J43" t="n">
+        <v>8489643</v>
+      </c>
+      <c r="K43" t="n">
+        <v>56242595</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1111472009</v>
+      </c>
+      <c r="M43" t="n">
+        <v>792852539</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1976232095</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ismt_c_p_d_e_359_solved</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1663</v>
+      </c>
+      <c r="F44" t="n">
+        <v>80</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+      <c r="I44" t="n">
+        <v>162</v>
+      </c>
+      <c r="J44" t="n">
+        <v>26</v>
+      </c>
+      <c r="K44" t="n">
+        <v>841</v>
+      </c>
+      <c r="L44" t="n">
+        <v>9230</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1729</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13748</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ismt_c_p_d_e_359_time</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>6423449</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8619</v>
+      </c>
+      <c r="G45" t="n">
+        <v>92780</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4267</v>
+      </c>
+      <c r="I45" t="n">
+        <v>238020</v>
+      </c>
+      <c r="J45" t="n">
+        <v>7008899</v>
+      </c>
+      <c r="K45" t="n">
+        <v>54099838</v>
+      </c>
+      <c r="L45" t="n">
+        <v>738840365</v>
+      </c>
+      <c r="M45" t="n">
+        <v>519022221</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1325738458</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>z3_n_solved</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>239</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>84</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>z3_n_time</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>71969</v>
+      </c>
+      <c r="F47" t="n">
+        <v>349</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1057</v>
+      </c>
+      <c r="I47" t="n">
+        <v>29824</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>103199</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ismt_c_p_d_solved</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1663</v>
+      </c>
+      <c r="F48" t="n">
+        <v>80</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+      <c r="I48" t="n">
+        <v>162</v>
+      </c>
+      <c r="J48" t="n">
+        <v>26</v>
+      </c>
+      <c r="K48" t="n">
+        <v>822</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9229</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1776</v>
+      </c>
+      <c r="N48" t="n">
+        <v>13775</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ismt_c_p_d_time</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>5897390</v>
+      </c>
+      <c r="F49" t="n">
+        <v>22815</v>
+      </c>
+      <c r="G49" t="n">
+        <v>304766</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9290</v>
+      </c>
+      <c r="I49" t="n">
+        <v>574329</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6434907</v>
+      </c>
+      <c r="K49" t="n">
+        <v>50082018</v>
+      </c>
+      <c r="L49" t="n">
+        <v>826036998</v>
+      </c>
+      <c r="M49" t="n">
+        <v>623177456</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1512539969</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>aprove_solved</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1663</v>
+      </c>
+      <c r="F50" t="n">
+        <v>77</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+      <c r="I50" t="n">
+        <v>162</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>677</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6239</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8827</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>aprove_time</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1092627</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1306668</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7377</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2690687</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>47254433</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1149687714</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1202039506</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>cvc5_b_solved</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+      <c r="I52" t="n">
+        <v>24</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>42</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>cvc5_b_time</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>8627</v>
+      </c>
+      <c r="F53" t="n">
+        <v>332</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3885</v>
+      </c>
+      <c r="I53" t="n">
+        <v>29556</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3940</v>
+      </c>
+      <c r="L53" t="n">
+        <v>407835</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>454175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
